--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A3720-C258-483D-A95B-792811606B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B5B27-A3DF-41A6-83DD-DB20CB57B3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01.01" sheetId="21" r:id="rId1"/>
+    <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
+    <sheet name="2020.8.6" sheetId="22" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -55,11 +56,32 @@
     <t>已完成，并确认</t>
   </si>
   <si>
-    <t>(8.6)远程仓库与本地仓库建立连接，并成功上传日志，学习功能执行语句与结构定义语句，学习推导式，学习函数的使用</t>
+    <t>远程仓库与本地仓库建立连接，并成功上传日志</t>
+  </si>
+  <si>
+    <t>学习推导式，学习函数的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(8.5)pycharm环境配置，安装Git，创建远程仓库，分配号组内职位</t>
+    <t>学习功能执行语句与结构定义语句,以及文件注释注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装Git，配置环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建远程仓库</t>
+  </si>
+  <si>
+    <t>分配号组内职位</t>
+  </si>
+  <si>
+    <t>pycharm环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习基本语法，面向过程语法和面向对象语法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +358,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -350,21 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +711,7 @@
   <dimension ref="A1:IV500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -703,35 +731,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,10 +767,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -756,15 +784,15 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="22">
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>10</v>
@@ -774,11 +802,11 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
@@ -788,39 +816,51 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -828,9 +868,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -838,9 +878,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -848,9 +888,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -858,9 +898,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -871,10 +911,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -882,14 +922,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,11 +937,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,11 +949,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2481,11 +2521,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2493,6 +2528,11 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2503,4 +2543,1834 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C31870-8F5F-4129-975E-454EA74E9BBF}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{BDE92970-D4DB-4DD3-AAF5-7EC43CC566D5}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B5B27-A3DF-41A6-83DD-DB20CB57B3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FCA5E-97A6-4FBF-A4C3-4490A98C8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
     <sheet name="2020.8.6" sheetId="22" r:id="rId2"/>
+    <sheet name="2020.8.7" sheetId="24" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -84,12 +85,28 @@
     <t>学习基本语法，面向过程语法和面向对象语法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>掌握爬虫的基本概念</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握爬虫编写代码的基本流程，所用的第三方库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定爬虫任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在对自己爬虫代码进行编写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -121,6 +138,11 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -303,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,20 +383,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +406,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -731,35 +759,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,10 +795,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -784,13 +812,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -802,9 +830,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -816,9 +844,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -830,9 +858,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -844,9 +872,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -858,9 +886,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -868,9 +896,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -878,9 +906,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -888,9 +916,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -898,9 +926,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -911,10 +939,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -922,14 +950,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,11 +965,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,11 +977,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2521,6 +2549,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2528,11 +2561,6 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2570,35 +2598,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,10 +2634,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2623,13 +2651,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2641,9 +2669,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2655,9 +2683,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2669,9 +2697,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2679,9 +2707,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2689,9 +2717,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2699,9 +2727,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2709,9 +2737,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2719,9 +2747,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2729,9 +2757,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2742,10 +2770,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2753,14 +2781,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,11 +2796,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2780,11 +2808,1841 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{BDE92970-D4DB-4DD3-AAF5-7EC43CC566D5}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9420F-0FD3-43B3-8DAC-0D25C6B90332}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4365,12 +6223,13 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{BDE92970-D4DB-4DD3-AAF5-7EC43CC566D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{30868541-93CD-4D88-A972-23FF625DF877}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FCA5E-97A6-4FBF-A4C3-4490A98C8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B58C4-847E-4371-AF36-A39159AFB691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
     <sheet name="2020.8.6" sheetId="22" r:id="rId2"/>
     <sheet name="2020.8.7" sheetId="24" r:id="rId3"/>
+    <sheet name="2020.8.9" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -99,6 +100,18 @@
   </si>
   <si>
     <t>正在对自己爬虫代码进行编写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成爬虫代码，并写入excel表格中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用python对excel格式进行修改，使写入后更好看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加程序日志</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +405,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,21 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,35 +778,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,10 +814,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -812,13 +831,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="26">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -830,9 +849,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,9 +863,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -858,9 +877,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -872,9 +891,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -886,9 +905,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -896,9 +915,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -906,9 +925,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -916,9 +935,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -926,9 +945,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -939,10 +958,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -950,14 +969,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,11 +984,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,11 +996,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2549,11 +2568,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2561,6 +2575,11 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2598,35 +2617,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,10 +2653,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2651,13 +2670,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="26">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2669,9 +2688,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2683,9 +2702,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2697,9 +2716,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2707,9 +2726,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2717,9 +2736,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2727,9 +2746,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2737,9 +2756,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2747,9 +2766,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2757,9 +2776,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2770,10 +2789,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2781,14 +2800,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,11 +2815,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2808,11 +2827,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4380,18 +4399,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4407,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9420F-0FD3-43B3-8DAC-0D25C6B90332}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4428,35 +4447,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4464,10 +4483,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4481,13 +4500,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="26">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4501,9 +4520,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4517,9 +4536,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4527,9 +4546,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4537,9 +4556,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4547,9 +4566,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4557,9 +4576,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4567,9 +4586,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4577,9 +4596,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4587,9 +4606,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4600,10 +4619,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4611,14 +4630,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4626,11 +4645,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4638,11 +4657,1842 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{30868541-93CD-4D88-A972-23FF625DF877}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC7E72-1A20-4290-ADA6-410765B906DE}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="22">
+        <v>2</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6225,7 +8075,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{30868541-93CD-4D88-A972-23FF625DF877}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{CCDF3412-790D-47D3-917D-39BC850C7727}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B58C4-847E-4371-AF36-A39159AFB691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94537C-AA5C-4932-A88E-6AF6F63F4363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
     <sheet name="2020.8.6" sheetId="22" r:id="rId2"/>
     <sheet name="2020.8.7" sheetId="24" r:id="rId3"/>
     <sheet name="2020.8.9" sheetId="25" r:id="rId4"/>
+    <sheet name="2020.8.10" sheetId="26" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -112,6 +113,30 @@
   </si>
   <si>
     <t>添加程序日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习面向对象编程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与函数编程相比，面向对象编程可读性，修改性更好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习面向对象的三大特征，封装，继承，多态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习类的变量和方法以及对象的变量和方法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定自己在web开发时数据的呈现形式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑图和环状图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,20 +433,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -440,6 +456,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,35 +809,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,10 +845,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -831,13 +862,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -849,9 +880,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -863,9 +894,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -877,9 +908,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -891,9 +922,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -905,9 +936,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -915,9 +946,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -925,9 +956,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -935,9 +966,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -945,9 +976,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -958,10 +989,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -969,14 +1000,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,11 +1015,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,11 +1027,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2568,6 +2599,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2575,11 +2611,6 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2617,35 +2648,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,10 +2684,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2670,13 +2701,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2688,9 +2719,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2702,9 +2733,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2716,9 +2747,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2726,9 +2757,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2736,9 +2767,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2746,9 +2777,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2756,9 +2787,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2766,9 +2797,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2776,9 +2807,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2789,10 +2820,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2800,14 +2831,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2815,11 +2846,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2827,11 +2858,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4399,18 +4430,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4447,35 +4478,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,10 +4514,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4500,13 +4531,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4520,9 +4551,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4536,9 +4567,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4546,9 +4577,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4556,9 +4587,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4566,9 +4597,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4576,9 +4607,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4586,9 +4617,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4596,9 +4627,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4606,9 +4637,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4619,10 +4650,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4630,14 +4661,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,11 +4676,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4657,11 +4688,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6229,18 +6260,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6257,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC7E72-1A20-4290-ADA6-410765B906DE}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6278,35 +6309,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6314,10 +6345,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6331,13 +6362,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6349,9 +6380,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6363,9 +6394,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6377,9 +6408,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6387,9 +6418,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6397,9 +6428,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6407,9 +6438,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6417,9 +6448,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6427,9 +6458,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6437,9 +6468,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6450,10 +6481,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6461,14 +6492,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6476,11 +6507,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6488,11 +6519,1850 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{CCDF3412-790D-47D3-917D-39BC850C7727}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A880770-4ECF-4015-AB3A-1C19764B39DC}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8075,7 +9945,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{CCDF3412-790D-47D3-917D-39BC850C7727}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{4F91A4C9-D5FA-4ABB-BF10-A4197354A84E}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94537C-AA5C-4932-A88E-6AF6F63F4363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5991E4CB-9252-425D-BF84-37DA1BB65D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="2020.8.7" sheetId="24" r:id="rId3"/>
     <sheet name="2020.8.9" sheetId="25" r:id="rId4"/>
     <sheet name="2020.8.10" sheetId="26" r:id="rId5"/>
+    <sheet name="2020.8.11" sheetId="27" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -137,6 +138,26 @@
   </si>
   <si>
     <t>拓扑图和环状图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了代码管理相关知识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可执行代码，函数，类，模块，包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了异常处理相关知识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分为运行期异常，编译器异常，处理异常方式：1、捕获异常2、抛出异常 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了如何操作数据库，通过代码将数据保存到数据库</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +463,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,21 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,35 +836,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,10 +872,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -862,13 +889,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -880,9 +907,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -894,9 +921,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -908,9 +935,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -922,9 +949,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -936,9 +963,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -946,9 +973,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -956,9 +983,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -966,9 +993,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -976,9 +1003,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -989,10 +1016,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1000,14 +1027,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1015,11 +1042,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,11 +1054,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2599,11 +2626,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2611,6 +2633,11 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2648,35 +2675,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2684,10 +2711,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2701,13 +2728,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2719,9 +2746,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2733,9 +2760,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2747,9 +2774,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2757,9 +2784,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2767,9 +2794,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2777,9 +2804,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2787,9 +2814,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2797,9 +2824,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2807,9 +2834,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2820,10 +2847,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2831,14 +2858,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,11 +2873,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2858,11 +2885,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4430,18 +4457,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4478,35 +4505,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,10 +4541,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4531,13 +4558,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4551,9 +4578,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4567,9 +4594,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4577,9 +4604,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4587,9 +4614,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4597,9 +4624,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4607,9 +4634,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4617,9 +4644,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4627,9 +4654,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4637,9 +4664,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4650,10 +4677,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4661,14 +4688,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,11 +4703,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4688,11 +4715,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6260,18 +6287,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6309,35 +6336,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6345,10 +6372,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6362,13 +6389,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6380,9 +6407,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6394,9 +6421,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6408,9 +6435,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6418,9 +6445,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6428,9 +6455,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6438,9 +6465,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6448,9 +6475,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6458,9 +6485,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6468,9 +6495,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6481,10 +6508,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6492,14 +6519,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,11 +6534,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6519,11 +6546,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8091,18 +8118,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -8119,8 +8146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A880770-4ECF-4015-AB3A-1C19764B39DC}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -8140,35 +8167,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8176,10 +8203,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -8193,13 +8220,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="30">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -8213,9 +8240,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8227,9 +8254,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -8241,9 +8268,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -8257,9 +8284,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8267,9 +8294,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8277,9 +8304,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8287,9 +8314,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8297,9 +8324,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8307,9 +8334,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8320,10 +8347,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8331,14 +8358,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,11 +8373,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8358,11 +8385,1846 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{4F91A4C9-D5FA-4ABB-BF10-A4197354A84E}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C810EFA0-9C42-4EB3-BE77-1B4E36C9E121}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="26">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="26">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9945,7 +11807,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{4F91A4C9-D5FA-4ABB-BF10-A4197354A84E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{53B45EF6-D2EB-458E-BC96-C7C3F644483B}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5991E4CB-9252-425D-BF84-37DA1BB65D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300CCBC-D9B2-4C15-8B29-CD753EFED7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="2020.8.9" sheetId="25" r:id="rId4"/>
     <sheet name="2020.8.10" sheetId="26" r:id="rId5"/>
     <sheet name="2020.8.11" sheetId="27" r:id="rId6"/>
+    <sheet name="2020.8.12" sheetId="28" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -158,6 +159,18 @@
   </si>
   <si>
     <t>学习了如何操作数据库，通过代码将数据保存到数据库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装django包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本学会如何写登录界面和页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>写怎样的网页，如何布局</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,20 +479,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -498,6 +502,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,35 +855,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,10 +891,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -889,13 +908,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -907,9 +926,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -921,9 +940,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -935,9 +954,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -949,9 +968,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -963,9 +982,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -973,9 +992,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -983,9 +1002,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -993,9 +1012,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1003,9 +1022,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1016,10 +1035,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1027,14 +1046,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,11 +1061,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,11 +1073,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2626,6 +2645,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2633,11 +2657,6 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2675,35 +2694,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,10 +2730,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2728,13 +2747,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2746,9 +2765,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2760,9 +2779,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2774,9 +2793,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2784,9 +2803,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2794,9 +2813,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2804,9 +2823,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2814,9 +2833,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2824,9 +2843,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2834,9 +2853,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2847,10 +2866,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2858,14 +2877,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,11 +2892,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,11 +2904,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4457,18 +4476,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4505,35 +4524,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,10 +4560,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4558,13 +4577,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4578,9 +4597,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4594,9 +4613,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4604,9 +4623,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4614,9 +4633,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4624,9 +4643,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4634,9 +4653,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4644,9 +4663,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4654,9 +4673,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4664,9 +4683,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4677,10 +4696,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4688,14 +4707,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,11 +4722,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4715,11 +4734,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6287,18 +6306,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6336,35 +6355,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6372,10 +6391,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6389,13 +6408,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6407,9 +6426,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6421,9 +6440,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6435,9 +6454,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6445,9 +6464,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6455,9 +6474,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6465,9 +6484,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6475,9 +6494,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6485,9 +6504,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6495,9 +6514,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6508,10 +6527,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6519,14 +6538,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,11 +6553,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6546,11 +6565,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8118,18 +8137,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -8167,35 +8186,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8203,10 +8222,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -8220,13 +8239,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -8240,9 +8259,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8254,9 +8273,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -8268,9 +8287,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -8284,9 +8303,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8294,9 +8313,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8304,9 +8323,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8314,9 +8333,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8324,9 +8343,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8334,9 +8353,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8347,10 +8366,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8358,14 +8377,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8373,11 +8392,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8385,11 +8404,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9957,18 +9976,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -9985,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C810EFA0-9C42-4EB3-BE77-1B4E36C9E121}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10006,35 +10025,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10042,10 +10061,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -10059,13 +10078,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -10079,9 +10098,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -10095,9 +10114,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -10109,9 +10128,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10119,9 +10138,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10129,9 +10148,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10139,9 +10158,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10149,9 +10168,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10159,9 +10178,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10169,9 +10188,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10182,10 +10201,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10193,14 +10212,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,11 +10227,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10220,11 +10239,1840 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{53B45EF6-D2EB-458E-BC96-C7C3F644483B}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541680C3-4037-4B83-BF03-A9943DCD0EB6}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="28">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11807,7 +13655,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{53B45EF6-D2EB-458E-BC96-C7C3F644483B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{FAB792AE-7750-4830-BEE9-92C6554ADD99}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300CCBC-D9B2-4C15-8B29-CD753EFED7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001CE00-7B05-45C7-AAD9-74A1198FACC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="2020.8.10" sheetId="26" r:id="rId5"/>
     <sheet name="2020.8.11" sheetId="27" r:id="rId6"/>
     <sheet name="2020.8.12" sheetId="28" r:id="rId7"/>
+    <sheet name="2020.8.13" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -171,6 +172,22 @@
   </si>
   <si>
     <t>写怎样的网页，如何布局</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会如何将图片制作到网页上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会如何制作按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会如何在网页上制作表格并写入数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握html，CSS，javascript的相关编写知识</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +505,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,21 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,35 +878,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -891,10 +914,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -908,13 +931,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -926,9 +949,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -940,9 +963,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -954,9 +977,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -968,9 +991,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -982,9 +1005,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -992,9 +1015,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1002,9 +1025,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1012,9 +1035,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1022,9 +1045,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1035,10 +1058,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1046,14 +1069,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,11 +1084,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,11 +1096,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2645,11 +2668,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2657,6 +2675,11 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2694,35 +2717,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,10 +2753,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2747,13 +2770,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2765,9 +2788,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2779,9 +2802,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2793,9 +2816,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2803,9 +2826,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2813,9 +2836,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2823,9 +2846,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2833,9 +2856,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2843,9 +2866,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2853,9 +2876,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2866,10 +2889,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2877,14 +2900,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,11 +2915,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2904,11 +2927,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4476,18 +4499,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4524,35 +4547,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,10 +4583,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4577,13 +4600,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4597,9 +4620,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4613,9 +4636,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4623,9 +4646,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4633,9 +4656,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4643,9 +4666,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4653,9 +4676,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4663,9 +4686,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4673,9 +4696,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4683,9 +4706,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4696,10 +4719,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4707,14 +4730,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4722,11 +4745,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4734,11 +4757,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6306,18 +6329,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6355,35 +6378,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,10 +6414,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6408,13 +6431,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6426,9 +6449,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6440,9 +6463,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6454,9 +6477,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6464,9 +6487,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6474,9 +6497,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6484,9 +6507,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6494,9 +6517,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6504,9 +6527,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6514,9 +6537,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6527,10 +6550,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6538,14 +6561,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,11 +6576,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6565,11 +6588,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8137,18 +8160,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -8186,35 +8209,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8222,10 +8245,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -8239,13 +8262,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -8259,9 +8282,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8273,9 +8296,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -8287,9 +8310,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -8303,9 +8326,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8313,9 +8336,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8323,9 +8346,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8333,9 +8356,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8343,9 +8366,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8353,9 +8376,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8366,10 +8389,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8377,14 +8400,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,11 +8415,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8404,11 +8427,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9976,18 +9999,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -10025,35 +10048,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10061,10 +10084,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -10078,13 +10101,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -10098,9 +10121,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -10114,9 +10137,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -10128,9 +10151,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10138,9 +10161,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10148,9 +10171,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10158,9 +10181,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10168,9 +10191,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10178,9 +10201,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10188,9 +10211,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10201,10 +10224,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10212,14 +10235,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10227,11 +10250,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10239,11 +10262,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11811,18 +11834,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -11839,8 +11862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541680C3-4037-4B83-BF03-A9943DCD0EB6}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11860,35 +11883,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11896,10 +11919,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -11913,13 +11936,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -11931,9 +11954,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -11945,9 +11968,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -11955,9 +11978,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -11965,9 +11988,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -11975,9 +11998,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -11985,9 +12008,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -11995,9 +12018,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12005,9 +12028,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12015,9 +12038,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12028,10 +12051,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12039,14 +12062,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12054,13 +12077,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12068,11 +12091,1844 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{FAB792AE-7750-4830-BEE9-92C6554ADD99}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDFD95B-B1F5-49AE-A22D-A3F53AD53135}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13655,7 +15511,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{FAB792AE-7750-4830-BEE9-92C6554ADD99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{F7BE86E8-3542-470C-9D17-CA2DCF39FA11}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001CE00-7B05-45C7-AAD9-74A1198FACC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E705C77-C1F6-4F74-920A-0CA7F5635370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="2020.8.11" sheetId="27" r:id="rId6"/>
     <sheet name="2020.8.12" sheetId="28" r:id="rId7"/>
     <sheet name="2020.8.13" sheetId="29" r:id="rId8"/>
+    <sheet name="2020.8.14" sheetId="30" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -188,6 +189,18 @@
   </si>
   <si>
     <t>掌握html，CSS，javascript的相关编写知识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习html、CSS、js</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作个人主页中的导航栏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作个人主页的标题栏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,20 +521,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,6 +544,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,35 +897,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,10 +933,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -931,13 +950,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -949,9 +968,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -963,9 +982,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -977,9 +996,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -991,9 +1010,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1005,9 +1024,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1015,9 +1034,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1025,9 +1044,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1035,9 +1054,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1045,9 +1064,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1058,10 +1077,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1069,14 +1088,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,11 +1103,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,11 +1115,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2668,6 +2687,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2675,11 +2699,6 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2717,35 +2736,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,10 +2772,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2770,13 +2789,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2788,9 +2807,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2802,9 +2821,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2816,9 +2835,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2826,9 +2845,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2836,9 +2855,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2846,9 +2865,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2856,9 +2875,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2866,9 +2885,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2876,9 +2895,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2889,10 +2908,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2900,14 +2919,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,11 +2934,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2927,11 +2946,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4499,18 +4518,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4547,35 +4566,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,10 +4602,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4600,13 +4619,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4620,9 +4639,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4636,9 +4655,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4646,9 +4665,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4656,9 +4675,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4666,9 +4685,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4676,9 +4695,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4686,9 +4705,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4696,9 +4715,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4706,9 +4725,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4719,10 +4738,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4730,14 +4749,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,11 +4764,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4757,11 +4776,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6329,18 +6348,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6378,35 +6397,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6414,10 +6433,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6431,13 +6450,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6449,9 +6468,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6463,9 +6482,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6477,9 +6496,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6487,9 +6506,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6497,9 +6516,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6507,9 +6526,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6517,9 +6536,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6527,9 +6546,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6537,9 +6556,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6550,10 +6569,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6561,14 +6580,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,11 +6595,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6588,11 +6607,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8160,18 +8179,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -8209,35 +8228,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8245,10 +8264,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -8262,13 +8281,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -8282,9 +8301,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8296,9 +8315,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -8310,9 +8329,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -8326,9 +8345,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8336,9 +8355,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8346,9 +8365,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8356,9 +8375,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8366,9 +8385,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8376,9 +8395,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8389,10 +8408,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8400,14 +8419,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8415,11 +8434,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8427,11 +8446,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -9999,18 +10018,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -10048,35 +10067,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10084,10 +10103,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -10101,13 +10120,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -10121,9 +10140,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -10137,9 +10156,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -10151,9 +10170,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10161,9 +10180,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10171,9 +10190,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10181,9 +10200,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10191,9 +10210,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10201,9 +10220,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10211,9 +10230,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10224,10 +10243,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10235,14 +10254,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10250,11 +10269,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10262,11 +10281,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11834,18 +11853,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -11883,35 +11902,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11919,10 +11938,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -11936,13 +11955,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -11954,9 +11973,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -11968,9 +11987,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -11978,9 +11997,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -11988,9 +12007,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -11998,9 +12017,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12008,9 +12027,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12018,9 +12037,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12028,9 +12047,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12038,9 +12057,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12051,10 +12070,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12062,14 +12081,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12077,13 +12096,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12091,11 +12110,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13663,18 +13682,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13691,8 +13710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDFD95B-B1F5-49AE-A22D-A3F53AD53135}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -13712,35 +13731,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13748,10 +13767,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -13765,13 +13784,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>40</v>
       </c>
@@ -13783,9 +13802,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
@@ -13797,9 +13816,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
@@ -13811,9 +13830,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -13821,9 +13840,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -13831,9 +13850,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13841,9 +13860,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13851,9 +13870,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13861,9 +13880,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13871,9 +13890,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13884,10 +13903,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13895,14 +13914,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13910,13 +13929,13 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13924,11 +13943,1844 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{F7BE86E8-3542-470C-9D17-CA2DCF39FA11}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DEF69A-BD41-4B9E-8C7D-E432EF3BBAF3}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="32">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15511,7 +17363,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{F7BE86E8-3542-470C-9D17-CA2DCF39FA11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{90DFC3C5-C768-4F7A-813C-2C77A2EE7163}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\新建文件夹\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E705C77-C1F6-4F74-920A-0CA7F5635370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DA0D5-CD3D-45E9-ABD4-CDA862A2E283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="2020.8.12" sheetId="28" r:id="rId7"/>
     <sheet name="2020.8.13" sheetId="29" r:id="rId8"/>
     <sheet name="2020.8.14" sheetId="30" r:id="rId9"/>
+    <sheet name="2020.8.15" sheetId="31" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -201,6 +202,18 @@
   </si>
   <si>
     <t>制作个人主页的标题栏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网页排版</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网页的导航栏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网页背景设置，插入表格</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +543,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,21 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,35 +916,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,10 +952,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -950,13 +969,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -968,9 +987,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -982,9 +1001,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -996,9 +1015,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1010,9 +1029,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1024,9 +1043,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1034,9 +1053,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1044,9 +1063,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1054,9 +1073,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1064,9 +1083,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1077,10 +1096,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1088,14 +1107,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1103,11 +1122,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,11 +1134,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2687,11 +2706,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2699,10 +2713,1846 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8DE3C-C4D0-4B67-804B-1A8F69EFAAC5}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="34">
+        <v>2</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{19E78802-7A69-4F14-9C2F-D5654C7B39D3}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2736,35 +4586,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2772,10 +4622,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2789,13 +4639,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2807,9 +4657,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2821,9 +4671,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -2835,9 +4685,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2845,9 +4695,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2855,9 +4705,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2865,9 +4715,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2875,9 +4725,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2885,9 +4735,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2895,9 +4745,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2908,10 +4758,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2919,14 +4769,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,11 +4784,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2946,11 +4796,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4518,18 +6368,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4566,35 +6416,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,10 +6452,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -4619,13 +6469,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -4639,9 +6489,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4655,9 +6505,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4665,9 +6515,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4675,9 +6525,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4685,9 +6535,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4695,9 +6545,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4705,9 +6555,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4715,9 +6565,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4725,9 +6575,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4738,10 +6588,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4749,14 +6599,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4764,11 +6614,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4776,11 +6626,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6348,18 +8198,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6397,35 +8247,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6433,10 +8283,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -6450,13 +8300,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -6468,9 +8318,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6482,9 +8332,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6496,9 +8346,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6506,9 +8356,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6516,9 +8366,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6526,9 +8376,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6536,9 +8386,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6546,9 +8396,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6556,9 +8406,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6569,10 +8419,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6580,14 +8430,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6595,11 +8445,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6607,11 +8457,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8179,18 +10029,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -8228,35 +10078,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,10 +10114,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -8281,13 +10131,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -8301,9 +10151,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8315,9 +10165,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -8329,9 +10179,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -8345,9 +10195,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8355,9 +10205,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8365,9 +10215,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8375,9 +10225,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8385,9 +10235,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8395,9 +10245,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8408,10 +10258,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8419,14 +10269,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8434,11 +10284,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8446,11 +10296,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10018,18 +11868,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -10067,35 +11917,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10103,10 +11953,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -10120,13 +11970,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -10140,9 +11990,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -10156,9 +12006,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -10170,9 +12020,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10180,9 +12030,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10190,9 +12040,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10200,9 +12050,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10210,9 +12060,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10220,9 +12070,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10230,9 +12080,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10243,10 +12093,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10254,14 +12104,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10269,11 +12119,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10281,11 +12131,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11853,18 +13703,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -11902,35 +13752,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11938,10 +13788,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -11955,13 +13805,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -11973,9 +13823,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -11987,9 +13837,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -11997,9 +13847,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -12007,9 +13857,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -12017,9 +13867,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12027,9 +13877,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12037,9 +13887,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12047,9 +13897,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12057,9 +13907,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12070,10 +13920,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12081,14 +13931,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12096,13 +13946,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12110,11 +13960,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13682,18 +15532,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13731,35 +15581,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13767,10 +15617,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -13784,13 +15634,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>40</v>
       </c>
@@ -13802,9 +15652,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
@@ -13816,9 +15666,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
@@ -13830,9 +15680,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -13840,9 +15690,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -13850,9 +15700,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13860,9 +15710,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13870,9 +15720,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13880,9 +15730,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13890,9 +15740,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13903,10 +15753,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13914,14 +15764,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13929,13 +15779,13 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13943,11 +15793,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15515,18 +17365,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15543,8 +17393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DEF69A-BD41-4B9E-8C7D-E432EF3BBAF3}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -15564,35 +17414,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15600,10 +17450,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -15617,13 +17467,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="38">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
@@ -15635,9 +17485,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
@@ -15649,9 +17499,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="16" t="s">
         <v>46</v>
       </c>
@@ -15663,9 +17513,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -15673,9 +17523,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -15683,9 +17533,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -15693,9 +17543,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -15703,9 +17553,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -15713,9 +17563,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -15723,9 +17573,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15736,10 +17586,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15747,14 +17597,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15762,13 +17612,13 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15776,11 +17626,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17348,18 +19198,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\新建文件夹\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64DA0D5-CD3D-45E9-ABD4-CDA862A2E283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A455EB6F-B1A1-4137-BE43-FD77E09B791F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="2020.8.13" sheetId="29" r:id="rId8"/>
     <sheet name="2020.8.14" sheetId="30" r:id="rId9"/>
     <sheet name="2020.8.15" sheetId="31" r:id="rId10"/>
+    <sheet name="2020.8.17" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -214,6 +215,18 @@
   </si>
   <si>
     <t>完成网页背景设置，插入表格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ppt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入登录页面，网页背景音乐</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +504,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,35 +935,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,10 +971,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -969,13 +988,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -987,9 +1006,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,9 +1020,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1015,9 +1034,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1029,9 +1048,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1043,9 +1062,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1053,9 +1072,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1063,9 +1082,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1073,9 +1092,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1083,9 +1102,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1096,10 +1115,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1107,14 +1126,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,11 +1141,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,11 +1153,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2734,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8DE3C-C4D0-4B67-804B-1A8F69EFAAC5}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2755,35 +2774,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2791,10 +2810,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -2808,13 +2827,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
@@ -2826,9 +2845,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2840,9 +2859,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>49</v>
       </c>
@@ -2854,9 +2873,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2864,9 +2883,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2874,9 +2893,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2884,9 +2903,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2894,9 +2913,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2904,9 +2923,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2914,9 +2933,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2927,10 +2946,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2938,14 +2957,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2953,11 +2972,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2965,11 +2984,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4553,6 +4572,1837 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{19E78802-7A69-4F14-9C2F-D5654C7B39D3}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8665D302-1071-4615-AD1C-BAB5BF8B8F2E}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="G5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="47">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="36">
+        <v>2</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1C7076FB-7D09-4845-829C-762BB6BED1F1}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4586,35 +6436,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4622,10 +6472,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -4639,13 +6489,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -4657,9 +6507,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4671,9 +6521,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -4685,9 +6535,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4695,9 +6545,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4705,9 +6555,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4715,9 +6565,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4725,9 +6575,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4735,9 +6585,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4745,9 +6595,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4758,10 +6608,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4769,14 +6619,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,11 +6634,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4796,11 +6646,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6416,35 +8266,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6452,10 +8302,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -6469,13 +8319,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -6489,9 +8339,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -6505,9 +8355,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -6515,9 +8365,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6525,9 +8375,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6535,9 +8385,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6545,9 +8395,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6555,9 +8405,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6565,9 +8415,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6575,9 +8425,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6588,10 +8438,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6599,14 +8449,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6614,11 +8464,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6626,11 +8476,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8247,35 +10097,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8283,10 +10133,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -8300,13 +10150,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -8318,9 +10168,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -8332,9 +10182,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -8346,9 +10196,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -8356,9 +10206,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8366,9 +10216,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8376,9 +10226,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8386,9 +10236,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8396,9 +10246,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8406,9 +10256,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8419,10 +10269,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8430,14 +10280,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8445,11 +10295,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8457,11 +10307,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10078,35 +11928,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10114,10 +11964,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -10131,13 +11981,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -10151,9 +12001,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -10165,9 +12015,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -10179,9 +12029,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -10195,9 +12045,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10205,9 +12055,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10215,9 +12065,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10225,9 +12075,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10235,9 +12085,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10245,9 +12095,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10258,10 +12108,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10269,14 +12119,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,11 +12134,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10296,11 +12146,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11917,35 +13767,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11953,10 +13803,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -11970,13 +13820,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -11990,9 +13840,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -12006,9 +13856,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -12020,9 +13870,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -12030,9 +13880,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -12040,9 +13890,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12050,9 +13900,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12060,9 +13910,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12070,9 +13920,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12080,9 +13930,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12093,10 +13943,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12104,14 +13954,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12119,11 +13969,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12131,11 +13981,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13752,35 +15602,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13788,10 +15638,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -13805,13 +15655,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -13823,9 +15673,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -13837,9 +15687,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -13847,9 +15697,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -13857,9 +15707,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -13867,9 +15717,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13877,9 +15727,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13887,9 +15737,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13897,9 +15747,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13907,9 +15757,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13920,10 +15770,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13931,14 +15781,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13946,13 +15796,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13960,11 +15810,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15560,7 +17410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDFD95B-B1F5-49AE-A22D-A3F53AD53135}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15581,35 +17431,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,10 +17467,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -15634,13 +17484,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>40</v>
       </c>
@@ -15652,9 +17502,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
@@ -15666,9 +17516,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
@@ -15680,9 +17530,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -15690,9 +17540,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -15700,9 +17550,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -15710,9 +17560,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -15720,9 +17570,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -15730,9 +17580,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -15740,9 +17590,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15753,10 +17603,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15764,14 +17614,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15779,13 +17629,13 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15793,11 +17643,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17414,35 +19264,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17450,10 +19300,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -17467,13 +19317,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="45">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
@@ -17485,9 +19335,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
@@ -17499,9 +19349,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="16" t="s">
         <v>46</v>
       </c>
@@ -17513,9 +19363,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -17523,9 +19373,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -17533,9 +19383,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -17543,9 +19393,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -17553,9 +19403,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -17563,9 +19413,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -17573,9 +19423,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -17586,10 +19436,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -17597,14 +19447,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17612,13 +19462,13 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17626,11 +19476,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\新建文件夹\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A455EB6F-B1A1-4137-BE43-FD77E09B791F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D20444-DFDE-460E-B6E1-5CFEDB094AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="2020.8.14" sheetId="30" r:id="rId9"/>
     <sheet name="2020.8.15" sheetId="31" r:id="rId10"/>
     <sheet name="2020.8.17" sheetId="32" r:id="rId11"/>
+    <sheet name="2020.8.18" sheetId="33" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -227,6 +228,14 @@
   </si>
   <si>
     <t>加入登录页面，网页背景音乐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt准备</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,20 +574,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,6 +597,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,35 +950,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,10 +986,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -988,13 +1003,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -1006,9 +1021,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,9 +1035,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1034,9 +1049,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1048,9 +1063,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1062,9 +1077,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1072,9 +1087,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1082,9 +1097,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1092,9 +1107,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1102,9 +1117,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1115,10 +1130,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1126,14 +1141,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,11 +1156,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,11 +1168,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2725,6 +2740,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2732,11 +2752,6 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2774,35 +2789,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2810,10 +2825,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -2827,13 +2842,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
@@ -2845,9 +2860,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,9 +2874,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>49</v>
       </c>
@@ -2873,9 +2888,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2883,9 +2898,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2893,9 +2908,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2903,9 +2918,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2913,9 +2928,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2923,9 +2938,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2933,9 +2948,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2946,10 +2961,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2957,14 +2972,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,11 +2987,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2984,11 +2999,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4556,18 +4571,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -4584,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8665D302-1071-4615-AD1C-BAB5BF8B8F2E}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="G5:H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4605,35 +4620,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,10 +4656,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -4658,13 +4673,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>50</v>
       </c>
@@ -4676,9 +4691,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
@@ -4690,9 +4705,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>51</v>
       </c>
@@ -4704,9 +4719,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4714,9 +4729,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4724,9 +4739,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4734,9 +4749,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4744,9 +4759,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4754,9 +4769,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4764,9 +4779,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4777,10 +4792,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4788,14 +4803,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4803,11 +4818,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4815,11 +4830,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6387,22 +6402,1849 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1C7076FB-7D09-4845-829C-762BB6BED1F1}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A240E-BC3D-4DFE-AD05-D8702A30C8B9}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="38">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1C7076FB-7D09-4845-829C-762BB6BED1F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1DD24FDB-66C6-4B20-B46A-594EA2025CD5}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6436,35 +8278,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,10 +8314,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -6489,13 +8331,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -6507,9 +8349,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -6521,9 +8363,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -6535,9 +8377,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6545,9 +8387,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6555,9 +8397,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6565,9 +8407,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6575,9 +8417,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6585,9 +8427,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6595,9 +8437,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6608,10 +8450,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6619,14 +8461,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6634,11 +8476,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6646,11 +8488,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8218,18 +10060,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8266,35 +10108,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8302,10 +10144,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -8319,13 +10161,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -8339,9 +10181,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8355,9 +10197,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -8365,9 +10207,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -8375,9 +10217,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8385,9 +10227,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8395,9 +10237,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8405,9 +10247,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8415,9 +10257,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8425,9 +10267,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8438,10 +10280,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8449,14 +10291,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8464,11 +10306,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8476,11 +10318,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10048,18 +11890,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -10097,35 +11939,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10133,10 +11975,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -10150,13 +11992,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -10168,9 +12010,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -10182,9 +12024,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -10196,9 +12038,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10206,9 +12048,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10216,9 +12058,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10226,9 +12068,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10236,9 +12078,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10246,9 +12088,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10256,9 +12098,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10269,10 +12111,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10280,14 +12122,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10295,11 +12137,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10307,11 +12149,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11879,18 +13721,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -11928,35 +13770,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11964,10 +13806,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -11981,13 +13823,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -12001,9 +13843,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -12015,9 +13857,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -12029,9 +13871,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -12045,9 +13887,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -12055,9 +13897,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12065,9 +13907,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12075,9 +13917,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12085,9 +13927,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12095,9 +13937,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12108,10 +13950,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12119,14 +13961,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12134,11 +13976,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12146,11 +13988,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13718,18 +15560,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13767,35 +15609,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13803,10 +15645,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -13820,13 +15662,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -13840,9 +15682,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -13856,9 +15698,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -13870,9 +15712,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -13880,9 +15722,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -13890,9 +15732,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13900,9 +15742,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13910,9 +15752,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13920,9 +15762,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13930,9 +15772,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13943,10 +15785,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13954,14 +15796,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13969,11 +15811,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13981,11 +15823,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15553,18 +17395,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15602,35 +17444,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15638,10 +17480,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -15655,13 +17497,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -15673,9 +17515,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -15687,9 +17529,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -15697,9 +17539,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -15707,9 +17549,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -15717,9 +17559,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -15727,9 +17569,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -15737,9 +17579,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -15747,9 +17589,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -15757,9 +17599,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15770,10 +17612,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15781,14 +17623,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15796,13 +17638,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15810,11 +17652,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17382,18 +19224,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -17431,35 +19273,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17467,10 +19309,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -17484,13 +19326,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>40</v>
       </c>
@@ -17502,9 +19344,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
@@ -17516,9 +19358,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
@@ -17530,9 +19372,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -17540,9 +19382,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -17550,9 +19392,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -17560,9 +19402,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -17570,9 +19412,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -17580,9 +19422,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -17590,9 +19432,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -17603,10 +19445,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -17614,14 +19456,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17629,13 +19471,13 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17643,11 +19485,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -19215,18 +21057,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -19264,35 +21106,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19300,10 +21142,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -19317,13 +21159,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
@@ -19335,9 +21177,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
@@ -19349,9 +21191,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="16" t="s">
         <v>46</v>
       </c>
@@ -19363,9 +21205,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -19373,9 +21215,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -19383,9 +21225,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -19393,9 +21235,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -19403,9 +21245,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -19413,9 +21255,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -19423,9 +21265,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -19436,10 +21278,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -19447,14 +21289,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19462,13 +21304,13 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19476,11 +21318,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -21048,18 +22890,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">

--- a/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
+++ b/项目名字/11执行与监控/03小组日报/项目日报（邵正强）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Desktop\update\CIAIC_Rulaifozu\项目名字\11执行与监控\03小组日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\邵正强\Documents\WeChat Files\wxid_obahfrim5uyd12\FileStorage\File\2020-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D20444-DFDE-460E-B6E1-5CFEDB094AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB303E54-349B-4276-941E-3D83330426B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.8.5" sheetId="21" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="2020.8.15" sheetId="31" r:id="rId10"/>
     <sheet name="2020.8.17" sheetId="32" r:id="rId11"/>
     <sheet name="2020.8.18" sheetId="33" r:id="rId12"/>
+    <sheet name="2020.8.19" sheetId="34" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="58">
   <si>
     <t>每 日 工 作 报 告 书</t>
   </si>
@@ -236,6 +237,18 @@
   </si>
   <si>
     <t>ppt准备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有项目文件交付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测试报告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目总结、个人总结</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +596,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,21 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,35 +969,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,10 +1005,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1003,13 +1022,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
@@ -1021,9 +1040,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1035,9 +1054,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1049,9 +1068,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1063,9 +1082,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1077,9 +1096,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1087,9 +1106,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1097,9 +1116,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1107,9 +1126,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1117,9 +1136,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1130,10 +1149,10 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1141,14 +1160,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,11 +1175,11 @@
       <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,11 +1187,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -2740,11 +2759,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
@@ -2752,6 +2766,11 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2789,35 +2808,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,10 +2844,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
@@ -2842,13 +2861,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
@@ -2860,9 +2879,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2874,9 +2893,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>49</v>
       </c>
@@ -2888,9 +2907,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2898,9 +2917,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2908,9 +2927,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2918,9 +2937,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2928,9 +2947,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2938,9 +2957,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2948,9 +2967,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2961,10 +2980,10 @@
       <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2972,14 +2991,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2987,11 +3006,11 @@
       <c r="B17" s="34">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2999,11 +3018,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -4571,18 +4590,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -4620,35 +4639,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,10 +4675,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
@@ -4673,13 +4692,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>50</v>
       </c>
@@ -4691,9 +4710,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
@@ -4705,9 +4724,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>51</v>
       </c>
@@ -4719,9 +4738,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4729,9 +4748,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4739,9 +4758,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -4749,9 +4768,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4759,9 +4778,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -4769,9 +4788,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4779,9 +4798,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4792,10 +4811,10 @@
       <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4803,14 +4822,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4818,11 +4837,11 @@
       <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4830,11 +4849,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -6402,18 +6421,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6430,8 +6449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A240E-BC3D-4DFE-AD05-D8702A30C8B9}">
   <dimension ref="A1:IV500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6451,35 +6470,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,10 +6506,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
@@ -6504,13 +6523,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>53</v>
       </c>
@@ -6522,9 +6541,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
@@ -6536,9 +6555,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -6546,9 +6565,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -6556,9 +6575,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6566,9 +6585,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6576,9 +6595,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -6586,9 +6605,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -6596,9 +6615,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -6606,9 +6625,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -6619,10 +6638,10 @@
       <c r="B15" s="38">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -6630,14 +6649,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6645,11 +6664,11 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6657,11 +6676,1842 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C194" s="3"/>
+    </row>
+    <row r="195" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C197" s="3"/>
+    </row>
+    <row r="198" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C198" s="3"/>
+    </row>
+    <row r="199" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="3:3" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="3:7" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E448" s="1"/>
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E449" s="1"/>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E460" s="1"/>
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E465" s="1"/>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E466" s="1"/>
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E468" s="1"/>
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E472" s="1"/>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E477" s="1"/>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E478" s="1"/>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E481" s="1"/>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E489" s="1"/>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E490" s="1"/>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E491" s="1"/>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E494" s="1"/>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E495" s="1"/>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E498" s="1"/>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E499" s="1"/>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E500" s="1"/>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1DD24FDB-66C6-4B20-B46A-594EA2025CD5}">
+      <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5766A283-2D40-46E3-B999-900A5E605627}">
+  <dimension ref="A1:IV500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="2" customWidth="1"/>
+    <col min="9" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="255" width="9" style="2"/>
+    <col min="256" max="256" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="40">
+        <v>2</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="40">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -8244,12 +10094,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{1DD24FDB-66C6-4B20-B46A-594EA2025CD5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F15 F17:F65536" xr:uid="{98F75E4E-4CAA-4154-A2EF-A9E8D3EE7E61}">
       <formula1>"已完成，并确认,已完成，未确认,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8278,35 +10128,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8314,10 +10164,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -8331,13 +10181,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
@@ -8349,9 +10199,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
@@ -8363,9 +10213,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
@@ -8377,9 +10227,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -8387,9 +10237,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -8397,9 +10247,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -8407,9 +10257,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -8417,9 +10267,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -8427,9 +10277,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -8437,9 +10287,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -8450,10 +10300,10 @@
       <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -8461,14 +10311,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8476,11 +10326,11 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8488,11 +10338,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -10060,18 +11910,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10108,35 +11958,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10144,10 +11994,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -10161,13 +12011,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>19</v>
       </c>
@@ -10181,9 +12031,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -10197,9 +12047,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -10207,9 +12057,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -10217,9 +12067,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -10227,9 +12077,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -10237,9 +12087,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -10247,9 +12097,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -10257,9 +12107,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10267,9 +12117,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -10280,10 +12130,10 @@
       <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -10291,14 +12141,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10306,11 +12156,11 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10318,11 +12168,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -11890,18 +13740,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -11939,35 +13789,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11975,10 +13825,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -11992,13 +13842,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -12010,9 +13860,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
@@ -12024,9 +13874,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
@@ -12038,9 +13888,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -12048,9 +13898,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -12058,9 +13908,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -12068,9 +13918,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -12078,9 +13928,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -12088,9 +13938,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12098,9 +13948,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -12111,10 +13961,10 @@
       <c r="B15" s="22">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -12122,14 +13972,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12137,11 +13987,11 @@
       <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12149,11 +13999,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -13721,18 +15571,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13770,35 +15620,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13806,10 +15656,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -13823,13 +15673,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
@@ -13843,9 +15693,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
@@ -13857,9 +15707,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
@@ -13871,9 +15721,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
@@ -13887,9 +15737,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -13897,9 +15747,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13907,9 +15757,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -13917,9 +15767,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -13927,9 +15777,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13937,9 +15787,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -13950,10 +15800,10 @@
       <c r="B15" s="24">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -13961,14 +15811,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13976,11 +15826,11 @@
       <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13988,11 +15838,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -15560,18 +17410,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15609,35 +17459,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15645,10 +17495,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
@@ -15662,13 +17512,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
@@ -15682,9 +17532,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
@@ -15698,9 +17548,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
@@ -15712,9 +17562,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -15722,9 +17572,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -15732,9 +17582,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -15742,9 +17592,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -15752,9 +17602,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -15762,9 +17612,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -15772,9 +17622,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -15785,10 +17635,10 @@
       <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -15796,14 +17646,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15811,11 +17661,11 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15823,11 +17673,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -17395,18 +19245,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -17444,35 +19294,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17480,10 +19330,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
@@ -17497,13 +19347,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -17515,9 +19365,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
@@ -17529,9 +19379,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -17539,9 +19389,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -17549,9 +19399,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -17559,9 +19409,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -17569,9 +19419,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -17579,9 +19429,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -17589,9 +19439,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -17599,9 +19449,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -17612,10 +19462,10 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -17623,14 +19473,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17638,13 +19488,13 @@
       <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17652,11 +19502,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -19224,18 +21074,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -19273,35 +21123,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19309,10 +21159,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
@@ -19326,13 +21176,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>40</v>
       </c>
@@ -19344,9 +21194,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
@@ -19358,9 +21208,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
@@ -19372,9 +21222,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -19382,9 +21232,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -19392,9 +21242,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -19402,9 +21252,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -19412,9 +21262,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -19422,9 +21272,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -19432,9 +21282,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -19445,10 +21295,10 @@
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -19456,14 +21306,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19471,13 +21321,13 @@
       <c r="B17" s="30">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19485,11 +21335,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -21057,18 +22907,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -21106,35 +22956,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21142,10 +22992,10 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -21159,13 +23009,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
@@ -21177,9 +23027,9 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
@@ -21191,9 +23041,9 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="16" t="s">
         <v>46</v>
       </c>
@@ -21205,9 +23055,9 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="16"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -21215,9 +23065,9 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -21225,9 +23075,9 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -21235,9 +23085,9 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -21245,9 +23095,9 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -21255,9 +23105,9 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -21265,9 +23115,9 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -21278,10 +23128,10 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -21289,14 +23139,14 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21304,13 +23154,13 @@
       <c r="B17" s="32">
         <v>1</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21318,11 +23168,11 @@
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
@@ -22890,18 +24740,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
